--- a/bd/exploratorio.xlsx
+++ b/bd/exploratorio.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Exploracion</t>
+  </si>
+  <si>
+    <t>Agua_</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <dimension ref="A1:L205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>7</v>

--- a/bd/exploratorio.xlsx
+++ b/bd/exploratorio.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:L205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
